--- a/프로젝트 문서/프로젝트 계획일정.xlsx
+++ b/프로젝트 문서/프로젝트 계획일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssudo\source\repos\Networkproject\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDF836-BDE0-491F-8AF8-F1B5804228AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8D213-8E92-4C19-9297-DD274747EB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4095" yWindow="3345" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,10 +138,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,14 +198,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -212,11 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -250,6 +238,12 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -506,19 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -539,21 +520,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,11 +600,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,8 +617,30 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -661,29 +651,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,190 +731,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - 강조색2" xfId="4" builtinId="34"/>
-    <cellStyle name="20% - 강조색5" xfId="7" builtinId="46"/>
-    <cellStyle name="강조색1" xfId="3" builtinId="29"/>
-    <cellStyle name="강조색4" xfId="5" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="6" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="8" builtinId="49"/>
+    <cellStyle name="20% - 강조색2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - 강조색4" xfId="8" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="6" builtinId="46"/>
+    <cellStyle name="강조색1" xfId="2" builtinId="29"/>
+    <cellStyle name="강조색4" xfId="4" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="5" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="7" builtinId="49"/>
     <cellStyle name="경고문" xfId="1" builtinId="11"/>
-    <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1106,7 +1081,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1115,7 +1090,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1395,7 +1370,7 @@
   <dimension ref="A1:XEE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,32 +1380,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="30" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1458,24 +1433,24 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:59" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1495,7 +1470,11 @@
       <c r="BG2" s="3"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AB3" s="76"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
@@ -1515,17 +1494,25 @@
       <c r="BG3" s="5"/>
     </row>
     <row r="4" spans="1:59" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AM4" s="74"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
@@ -1540,38 +1527,26 @@
       <c r="BG4" s="5"/>
     </row>
     <row r="5" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K5" s="76"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="75"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="75"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="75"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="75"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
@@ -1583,54 +1558,54 @@
       <c r="BG5" s="5"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="53"/>
       <c r="AH6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="21"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="34"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
@@ -1652,8 +1627,8 @@
       <c r="BG6" s="5"/>
     </row>
     <row r="7" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -1663,10 +1638,10 @@
       <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="28">
         <v>5</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="28">
         <v>6</v>
       </c>
       <c r="J7" s="9">
@@ -1684,10 +1659,10 @@
       <c r="N7" s="9">
         <v>11</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="28">
         <v>12</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="28">
         <v>13</v>
       </c>
       <c r="Q7" s="9">
@@ -1705,10 +1680,10 @@
       <c r="U7" s="9">
         <v>18</v>
       </c>
-      <c r="V7" s="72">
+      <c r="V7" s="28">
         <v>19</v>
       </c>
-      <c r="W7" s="72">
+      <c r="W7" s="28">
         <v>20</v>
       </c>
       <c r="X7" s="9">
@@ -1726,10 +1701,10 @@
       <c r="AB7" s="9">
         <v>25</v>
       </c>
-      <c r="AC7" s="72">
+      <c r="AC7" s="28">
         <v>26</v>
       </c>
-      <c r="AD7" s="72">
+      <c r="AD7" s="28">
         <v>27</v>
       </c>
       <c r="AE7" s="9">
@@ -1738,7 +1713,7 @@
       <c r="AF7" s="9">
         <v>29</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="20">
         <v>30</v>
       </c>
       <c r="AH7" s="9">
@@ -1747,10 +1722,10 @@
       <c r="AI7" s="9">
         <v>2</v>
       </c>
-      <c r="AJ7" s="72">
+      <c r="AJ7" s="28">
         <v>3</v>
       </c>
-      <c r="AK7" s="72">
+      <c r="AK7" s="28">
         <v>4</v>
       </c>
       <c r="AL7" s="9">
@@ -1783,17 +1758,17 @@
       <c r="BG7" s="5"/>
     </row>
     <row r="8" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="74"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="K8" s="11"/>
@@ -1818,7 +1793,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
-      <c r="AG8" s="34"/>
+      <c r="AG8" s="21"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
@@ -1847,14 +1822,14 @@
       <c r="BG8" s="5"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="41"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1867,8 +1842,8 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -1879,7 +1854,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="35"/>
+      <c r="AG9" s="22"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -1908,13 +1883,13 @@
       <c r="BG9" s="5"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1930,9 +1905,9 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="29"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="W10" s="31"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -1942,7 +1917,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="35"/>
+      <c r="AG10" s="22"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -1971,13 +1946,13 @@
       <c r="BG10" s="5"/>
     </row>
     <row r="11" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1988,9 +1963,9 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="75"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -2005,7 +1980,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="35"/>
+      <c r="AG11" s="22"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -2034,20 +2009,20 @@
       <c r="BG11" s="5"/>
     </row>
     <row r="12" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="75"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2068,7 +2043,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="35"/>
+      <c r="AG12" s="22"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -2097,13 +2072,13 @@
       <c r="BG12" s="5"/>
     </row>
     <row r="13" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2122,7 +2097,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="X13" s="31"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -2131,7 +2106,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="35"/>
+      <c r="AG13" s="22"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -2160,17 +2135,17 @@
       <c r="BG13" s="5"/>
     </row>
     <row r="14" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="73"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2196,7 +2171,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="35"/>
+      <c r="AG14" s="22"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -2225,19 +2200,19 @@
       <c r="BG14" s="5"/>
     </row>
     <row r="15" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2259,9 +2234,9 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="30"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
@@ -2288,21 +2263,21 @@
       <c r="BG15" s="5"/>
     </row>
     <row r="16" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="76"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2322,7 +2297,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="35"/>
+      <c r="AG16" s="22"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -2350,14 +2325,14 @@
       <c r="BF16" s="5"/>
       <c r="BG16" s="5"/>
     </row>
-    <row r="17" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60" t="s">
+    <row r="17" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2370,9 +2345,9 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="74"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="76"/>
+      <c r="T17" s="31"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -2385,7 +2360,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="35"/>
+      <c r="AG17" s="30"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
@@ -2414,11 +2389,13 @@
       <c r="BG17" s="5"/>
     </row>
     <row r="18" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2427,16 +2404,15 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="29"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="74"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="76"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -2446,7 +2422,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="35"/>
+      <c r="AG18" s="22"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -2475,13 +2451,13 @@
       <c r="BG18" s="5"/>
     </row>
     <row r="19" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2490,7 +2466,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="74"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2507,9 +2483,9 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="35"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="22"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -2538,24 +2514,26 @@
       <c r="BG19" s="5"/>
     </row>
     <row r="20" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="A20" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2564,15 +2542,15 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="19"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="35"/>
+      <c r="AG20" s="22"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
@@ -2601,26 +2579,24 @@
       <c r="BG20" s="5"/>
     </row>
     <row r="21" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2632,17 +2608,17 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="28"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="35"/>
+      <c r="AG21" s="22"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="AI21" s="19"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
+      <c r="AL21" s="19"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="5"/>
@@ -2665,49 +2641,49 @@
       <c r="BF21" s="5"/>
       <c r="BG21" s="5"/>
     </row>
-    <row r="22" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="7"/>
+    <row r="22" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="10"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
@@ -2728,50 +2704,46 @@
       <c r="BF22" s="5"/>
       <c r="BG22" s="5"/>
     </row>
-    <row r="23" spans="1:59" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="5"/>
+    <row r="23" spans="1:59" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
@@ -2828,31 +2800,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A14:B19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="N1:R2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="I1:M2"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="F6:AG6"/>
+    <mergeCell ref="AH6:AN6"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="A8:B13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A14:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="N1:R2"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:H2"/>
-    <mergeCell ref="I1:M2"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="F6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>

--- a/프로젝트 문서/프로젝트 계획일정.xlsx
+++ b/프로젝트 문서/프로젝트 계획일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssudo\source\repos\Networkproject\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8D213-8E92-4C19-9297-DD274747EB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE1656-BF8C-487F-8FDB-81CE1CBF574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3345" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1050" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -770,21 +770,108 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,97 +884,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:XEE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,32 +1380,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="45" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1433,24 +1433,24 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:59" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1558,54 +1558,54 @@
       <c r="BG5" s="5"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="32" t="s">
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="34"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="65"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
@@ -1758,17 +1758,17 @@
       <c r="BG7" s="5"/>
     </row>
     <row r="8" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="K8" s="11"/>
@@ -1822,13 +1822,13 @@
       <c r="BG8" s="5"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>
@@ -1883,13 +1883,13 @@
       <c r="BG9" s="5"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1946,13 +1946,13 @@
       <c r="BG10" s="5"/>
     </row>
     <row r="11" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2009,13 +2009,13 @@
       <c r="BG11" s="5"/>
     </row>
     <row r="12" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2035,7 +2035,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="29"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -2072,13 +2072,13 @@
       <c r="BG12" s="5"/>
     </row>
     <row r="13" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2135,17 +2135,17 @@
       <c r="BG13" s="5"/>
     </row>
     <row r="14" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2200,13 +2200,13 @@
       <c r="BG14" s="5"/>
     </row>
     <row r="15" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2227,8 +2227,8 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2263,13 +2263,13 @@
       <c r="BG15" s="5"/>
     </row>
     <row r="16" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="41" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
       <c r="H16" s="4"/>
@@ -2326,13 +2326,13 @@
       <c r="BG16" s="5"/>
     </row>
     <row r="17" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2389,13 +2389,13 @@
       <c r="BG17" s="5"/>
     </row>
     <row r="18" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="41" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2451,13 +2451,13 @@
       <c r="BG18" s="5"/>
     </row>
     <row r="19" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="41" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2514,15 +2514,15 @@
       <c r="BG19" s="5"/>
     </row>
     <row r="20" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
@@ -2542,9 +2542,9 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="31"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2579,13 +2579,13 @@
       <c r="BG20" s="5"/>
     </row>
     <row r="21" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="4"/>
@@ -2642,13 +2642,13 @@
       <c r="BG21" s="5"/>
     </row>
     <row r="22" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="54" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2800,14 +2800,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="A14:B19"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="N1:R2"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
@@ -2818,13 +2815,16 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="F6:AG6"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="A8:B13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A14:B19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>

--- a/프로젝트 문서/프로젝트 계획일정.xlsx
+++ b/프로젝트 문서/프로젝트 계획일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssudo\source\repos\Networkproject\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE1656-BF8C-487F-8FDB-81CE1CBF574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB746982-047A-47FB-A516-6DB62CAC5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1050" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28820" yWindow="-2890" windowWidth="28800" windowHeight="15440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>마무리 및 리포트 작성</t>
   </si>
@@ -35,98 +35,110 @@
   </si>
   <si>
     <t>박동규</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>김정훈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>황석주</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>공통</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>최종 결과물 검토 및 제출</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DrawScene()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>패킷 구조체 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>클라이언트</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>서버</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>종류</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DataComm()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CreateSocket()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Keyborad()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>main()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>필요 구조체 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>initialize</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ClientMgr()</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>windTimer</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Event</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>점검</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>중간점검</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -245,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -604,43 +616,12 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -648,32 +629,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
@@ -743,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
@@ -758,94 +739,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -860,34 +802,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1348,7 @@
   <dimension ref="A1:XEE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,32 +1358,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="50" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1433,24 +1411,24 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:59" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1558,54 +1536,54 @@
       <c r="BG5" s="5"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="64" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="65"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="34"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
@@ -1627,8 +1605,8 @@
       <c r="BG6" s="5"/>
     </row>
     <row r="7" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -1758,15 +1736,15 @@
       <c r="BG7" s="5"/>
     </row>
     <row r="8" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="13"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1822,13 +1800,13 @@
       <c r="BG8" s="5"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>
@@ -1883,13 +1861,13 @@
       <c r="BG9" s="5"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1946,13 +1924,13 @@
       <c r="BG10" s="5"/>
     </row>
     <row r="11" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="52" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2009,13 +1987,13 @@
       <c r="BG11" s="5"/>
     </row>
     <row r="12" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2072,13 +2050,13 @@
       <c r="BG12" s="5"/>
     </row>
     <row r="13" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2135,15 +2113,15 @@
       <c r="BG13" s="5"/>
     </row>
     <row r="14" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2200,13 +2178,13 @@
       <c r="BG14" s="5"/>
     </row>
     <row r="15" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2263,13 +2241,13 @@
       <c r="BG15" s="5"/>
     </row>
     <row r="16" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
       <c r="H16" s="4"/>
@@ -2326,13 +2304,13 @@
       <c r="BG16" s="5"/>
     </row>
     <row r="17" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2389,13 +2367,13 @@
       <c r="BG17" s="5"/>
     </row>
     <row r="18" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2451,13 +2429,13 @@
       <c r="BG18" s="5"/>
     </row>
     <row r="19" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2514,26 +2492,24 @@
       <c r="BG19" s="5"/>
     </row>
     <row r="20" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2544,8 +2520,8 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="19"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -2579,24 +2555,26 @@
       <c r="BG20" s="5"/>
     </row>
     <row r="21" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2608,17 +2586,17 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="19"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="19"/>
+      <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
-      <c r="AL21" s="19"/>
+      <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="5"/>
@@ -2642,48 +2620,48 @@
       <c r="BG21" s="5"/>
     </row>
     <row r="22" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="10"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="7"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
@@ -2704,45 +2682,49 @@
       <c r="BF22" s="5"/>
       <c r="BG22" s="5"/>
     </row>
-    <row r="23" spans="1:59" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
+    <row r="23" spans="1:59" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="10"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
@@ -2799,12 +2781,16 @@
       <c r="AG27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C13:E13"/>
+  <mergeCells count="26">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A14:B20"/>
     <mergeCell ref="N1:R2"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
@@ -2817,16 +2803,13 @@
     <mergeCell ref="F6:AG6"/>
     <mergeCell ref="A8:B13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="A14:B19"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/프로젝트 문서/프로젝트 계획일정.xlsx
+++ b/프로젝트 문서/프로젝트 계획일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssudo\source\repos\Networkproject\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB746982-047A-47FB-A516-6DB62CAC5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6718ADC5-A882-4E52-AD63-BE5827846DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28820" yWindow="-2890" windowWidth="28800" windowHeight="15440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35180" yWindow="-2760" windowWidth="28800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,121 +751,121 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:XEE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="AL13" sqref="AL13:AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,32 +1358,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="37" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1411,24 +1411,24 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:59" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1536,54 +1536,54 @@
       <c r="BG5" s="5"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="32" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="34"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="70"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
@@ -1605,8 +1605,8 @@
       <c r="BG6" s="5"/>
     </row>
     <row r="7" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -1736,15 +1736,15 @@
       <c r="BG7" s="5"/>
     </row>
     <row r="8" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="13"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1759,7 +1759,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -1800,13 +1800,13 @@
       <c r="BG8" s="5"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>
@@ -1861,13 +1861,13 @@
       <c r="BG9" s="5"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1883,8 +1883,8 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="31"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -1894,7 +1894,7 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="AF10" s="30"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1924,13 +1924,13 @@
       <c r="BG10" s="5"/>
     </row>
     <row r="11" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1942,7 +1942,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="30"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1987,13 +1987,13 @@
       <c r="BG11" s="5"/>
     </row>
     <row r="12" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2006,7 +2006,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -2019,7 +2019,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="30"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="4"/>
@@ -2050,13 +2050,13 @@
       <c r="BG12" s="5"/>
     </row>
     <row r="13" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2113,15 +2113,15 @@
       <c r="BG13" s="5"/>
     </row>
     <row r="14" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2178,13 +2178,13 @@
       <c r="BG14" s="5"/>
     </row>
     <row r="15" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2241,13 +2241,13 @@
       <c r="BG15" s="5"/>
     </row>
     <row r="16" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="39" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
       <c r="H16" s="4"/>
@@ -2304,13 +2304,13 @@
       <c r="BG16" s="5"/>
     </row>
     <row r="17" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2367,13 +2367,13 @@
       <c r="BG17" s="5"/>
     </row>
     <row r="18" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2429,13 +2429,13 @@
       <c r="BG18" s="5"/>
     </row>
     <row r="19" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2492,13 +2492,13 @@
       <c r="BG19" s="5"/>
     </row>
     <row r="20" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2520,7 +2520,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="30"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2555,15 +2555,15 @@
       <c r="BG20" s="5"/>
     </row>
     <row r="21" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -2620,13 +2620,13 @@
       <c r="BG21" s="5"/>
     </row>
     <row r="22" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="65" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="4"/>
@@ -2683,13 +2683,13 @@
       <c r="BG22" s="5"/>
     </row>
     <row r="23" spans="1:59" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2782,11 +2782,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C23:E23"/>
@@ -2803,11 +2803,11 @@
     <mergeCell ref="F6:AG6"/>
     <mergeCell ref="A8:B13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
